--- a/doc/ue_module.xlsx
+++ b/doc/ue_module.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD86037-9D91-48DB-BBF1-2DF633376991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7312D1-C0A7-4936-A648-1DD47423C362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="动态库加载" sheetId="3" r:id="rId5"/>
     <sheet name="编译原理" sheetId="6" r:id="rId6"/>
     <sheet name="编译原理2" sheetId="7" r:id="rId7"/>
+    <sheet name="android编译" sheetId="8" r:id="rId8"/>
+    <sheet name="windows编译" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="241">
   <si>
     <t>Module</t>
   </si>
@@ -680,12 +682,217 @@
   <si>
     <t>LOCAL_STRIP_MODULE :=false</t>
   </si>
+  <si>
+    <t>public override CPPOutput CompileCPPFiles(CppCompileEnvironment CompileEnvironment, List&lt;FileItem&gt; InputFiles, DirectoryReference OutputDir, string ModuleName, IActionGraphBuilder Graph)</t>
+  </si>
+  <si>
+    <t>foreach (FileItem SourceFile in InputFiles)</t>
+  </si>
+  <si>
+    <t>// Create the response file</t>
+  </si>
+  <si>
+    <t>FileReference ResponseFileName = CompileAction.ProducedItems[0].Location + ".rsp";</t>
+  </si>
+  <si>
+    <t>生成文件对应的rsp文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\Launch\Module.Launch.cppa7.o.rsp</t>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\Launch\android_native_app_glue.ca7.o.rsp</t>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\UnLua\Module.UnLua.cppa7.o.rsp</t>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\UnLua\Module.UnLua.gen.cppa7.o.rsp</t>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\UMG\Module.UMG.gen.1_of_10.cppa7.o.rsp</t>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\NetCore\Module.NetCore.cppa7.o.rsp</t>
+  </si>
+  <si>
+    <t>public override bool ExecuteActions(List&lt;Action&gt; InputActions, bool bLogDetailedActionStats)</t>
+  </si>
+  <si>
+    <t>for(int Idx = 0; Idx &lt; InputActions.Count; Idx++)</t>
+  </si>
+  <si>
+    <t>BuildAction Action = new BuildAction();</t>
+  </si>
+  <si>
+    <t>Action.SortIndex = Idx;</t>
+  </si>
+  <si>
+    <t>Action.Inner = InputActions[Idx];</t>
+  </si>
+  <si>
+    <t>if (!Action.Inner.StatusDescription.EndsWith(".ispc"))</t>
+  </si>
+  <si>
+    <t>Action.SortIndex += 10000;</t>
+  </si>
+  <si>
+    <t>Actions.Add(Action);</t>
+  </si>
+  <si>
+    <t>Log.TraceInformation("fuck[{0}", InputActions[Idx].CommandPath);</t>
+  </si>
+  <si>
+    <t>Log.TraceInformation("fuck2[{0}", InputActions[Idx].CommandArguments);</t>
+  </si>
+  <si>
+    <t>这个时候的数据是:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuck[C:\Users\guanzhongdaoke\AppData\Local\Android\Sdk\ndk\21.4.7075529\toolchains\llvm\prebuilt\windows-x86_64\bin\clang++.exe</t>
+  </si>
+  <si>
+    <t>fuck2[@"D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\MyProject2\MyLevelScriptActor.gen.cppa7.o.rsp"</t>
+  </si>
+  <si>
+    <t>fuck2[@"D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\MyProject2\MyPawn.gen.cppa7.o.rsp"</t>
+  </si>
+  <si>
+    <t>fuck2[ -no-canonical-prefixes -shared -Wl,-Bsymbolic -Wl,--no-undefined -Wl,--gc-sections --target=armv7-none-linux-androideabi21 --gcc-toolchain="C:/Users/guanzhongdaoke/AppData/Local/Android/Sdk/ndk/21.4.7075529/toolchains/llvm/prebuilt/windows-x86_64" --sysroot="C:/Users/guanzhongdaoke/AppData/Local/Android/Sdk/ndk/21.4.7075529/toolchains/llvm/prebuilt/windows-x86_64/sysroot" -DANDROID=1 -march=armv7-a -Wl,-no-pie -fuse-ld=lld -Wl,-soname,libUE4.so</t>
+  </si>
+  <si>
+    <t>-Wl,--exclude-libs,libgcc_real.a -Wl,--exclude-libs,libatomic.a -Wl,--build-id=sha1 -o "D:/UE4Simple/MyProject2/Binaries/Android/MyProject2-armv7.so" @"D:/UE4Simple/MyProject2/Intermediate/Build/Android/MyProject2/Development/MyProject2-armv7.so.response"</t>
+  </si>
+  <si>
+    <t>fuck[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Binaries\DotNET\UnrealBuildTool.exe</t>
+  </si>
+  <si>
+    <t>fuck2[-Mode=WriteMetadata -Input=D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\Metadata.dat -Version=1</t>
+  </si>
+  <si>
+    <t>[1/13] MyLevelScriptActor.gen.cpp [armv7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2/13] MyPawn.gen.cpp [armv7]</t>
+  </si>
+  <si>
+    <t>[3/13] MyProject2.init.gen.cpp [armv7]</t>
+  </si>
+  <si>
+    <t>[4/13] MyProject2Character.gen.cpp [armv7]</t>
+  </si>
+  <si>
+    <t>fuck2[@"D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\MyProject2\MyProject2Character.gen.cppa7.o.rsp"</t>
+  </si>
+  <si>
+    <t>fuck3[@"D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\MyProject2\MyProject2Character.cppa7.o.rsp"</t>
+  </si>
+  <si>
+    <t>C:\Users\guanzhongdaoke\AppData\Local\Android\Sdk\ndk\21.4.7075529\toolchains\llvm\prebuilt\windows-x86_64\bin\clang++.exe @"D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\MyProject2\MyProject2Character.gen.cppa7.o.rsp"</t>
+  </si>
+  <si>
+    <t>注意后面的@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过该语句，可以在命令行生成对应的.o和.d文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该目录下执行这句话就可以生成.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Users\\guanzhongdaoke\\AppData\\Local\\Android\\Sdk\\ndk\\21.4.7075529\\toolchains\\llvm\\prebuilt\\windows-x86_64\\bin\\clang++.exe  -no-canonical-prefixes -shared -Wl,-Bsymbolic -Wl,--no-undefined -Wl,--gc-sections --target=armv7-none-linux-androideabi21 --gcc-toolchain="C:/Users/guanzhongdaoke/AppData/Local/Android/Sdk/ndk/21.4.7075529/toolchains/llvm/prebuilt/windows-x86_64" --sysroot="C:/Users/guanzhongdaoke/AppData/Local/Android/Sdk/ndk/21.4.7075529/toolchains/llvm/prebuilt/windows-x86_64/sysroot" -DANDROID=1 -march=armv7-a -Wl,-no-pie -fuse-ld=lld -Wl,-soname,libUE4.so    -Wl,--exclude-libs,libgcc_real.a -Wl,--exclude-libs,libatomic.a -Wl,--build-id=sha1 -o "D:/UE4Simple/MyProject2/Binaries/Android/MyProject2-armv7.so" @"D:/UE4Simple/MyProject2/Intermediate/Build/Android/MyProject2/Development/MyProject2-armv7.so.response"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development&gt;</t>
+  </si>
+  <si>
+    <t>D:\UE4Simple\MyProject2\Intermediate\Build\Android\MyProject2\Development\MyProject2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&gt;fuck[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\cl-filter\cl-filter.exe</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyPawn.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyPawn.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2Character.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2Character.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2GameMode.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2GameMode.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyLevelScriptActor.gen.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyLevelScriptActor.gen.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyPawn.gen.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyPawn.gen.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2.init.gen.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2.init.gen.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2Character.gen.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2Character.gen.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2GameMode.gen.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyProject2GameMode.gen.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyDataTable.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyDataTable.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyLevelScriptActor.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyLevelScriptActor.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;fuck[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\link-filter\link-filter.exe</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.dll.response"</t>
+  </si>
+  <si>
+    <t>1&gt;fuck[C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\lib.exe</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[@"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.lib.response"</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck9[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\cl-filter\cl-filter.exe</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck10[-dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyPawn.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyPawn.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck11[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Source</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck9[C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\lib.exe</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck10[@"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.lib.response"</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck9[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\link-filter\link-filter.exe</t>
+  </si>
+  <si>
+    <t>1&gt;  fuck10[-- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.dll.response"</t>
+  </si>
+  <si>
+    <t>private void CreateManagedProcessPortable(ManagedProcessGroup Group, string FileName, string CommandLine, string WorkingDirectory, IReadOnlyDictionary&lt;string, string&gt; Environment, byte[] Input, ProcessPriorityClass Priority)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +950,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,10 +976,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -793,16 +1009,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1865,126 +2083,126 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2240,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -2362,7 +2580,7 @@
       <c r="C30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2417,4 +2635,470 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A7E9B-B12F-4A40-850D-ABFA2BDE0D0F}">
+  <dimension ref="C5:O68"/>
+  <sheetViews>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J15" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J41" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J42" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>200</v>
+      </c>
+      <c r="K45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J53" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J60" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J61" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O60" r:id="rId1" xr:uid="{F5C11CB8-9C6A-4B0A-B3F6-E4E8D8268A46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D6DFB5-B4E1-45DB-8671-7B707C9DD0FC}">
+  <dimension ref="B2:E62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_module.xlsx
+++ b/doc/ue_module.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue-main\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6833BF-36D1-4E56-9106-B7AB2FFA22C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4605" yWindow="3390" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="3390" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="265">
   <si>
     <t>基本概念</t>
   </si>
@@ -263,9 +262,6 @@
     <t>IMPLEMENT_MODULE</t>
   </si>
   <si>
-    <t>宏定义</t>
-  </si>
-  <si>
     <t>对于module的实现，在MONOLITHIC和非MONOLITHIC模式下不一样，具体表现为</t>
   </si>
   <si>
@@ -984,11 +980,33 @@
     <t>D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\cl-filter\cl-filter.exe -dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\MyProject2\Debug\MyProject2\MyPawn.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\MyProject2\Debug\MyProject2\MyPawn.cpp.obj.response" /showIncludes</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>#define IMPLEMENT_MODULE( ModuleImplClass, ModuleName ) \</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏定义</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个宏定义区分了IMPLEMENT_MODULE的实现方式，通过UBT设置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UBT的SetupGlobalEnvironment函数里面设置这些宏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add(String.Format("IS_MONOLITHIC={0}", ShouldCompileMonolithic() ? "1" : "0"));</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add(String.Format("WITH_ENGINE={0}", Rules.bCompileAgainstEngine ? "1" : "0"));</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1663,10 +1681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1841,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1891,11 +1909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1907,317 +1925,340 @@
     <col min="5" max="5" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="19" spans="3:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>60</v>
+      <c r="D23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
+      <c r="D28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
+      <c r="D29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="7" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="9" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
+      <c r="C45" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E45" t="s">
         <v>72</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="7" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="7" t="s">
+      <c r="D52" t="s">
         <v>79</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>82</v>
       </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="7" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="s">
+      <c r="C65" t="s">
         <v>88</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="66" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+      <c r="C66" t="s">
         <v>90</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
+    <row r="68" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+      <c r="C68" t="s">
         <v>93</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" t="s">
-        <v>79</v>
+      <c r="C69" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -2243,17 +2284,17 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2384,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2403,138 +2444,138 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
         <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2563,58 +2604,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G72"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -2644,160 +2685,160 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
         <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
         <v>151</v>
-      </c>
-      <c r="D21" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
         <v>153</v>
-      </c>
-      <c r="D25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" t="s">
         <v>156</v>
-      </c>
-      <c r="E29" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="G30" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
         <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
         <v>163</v>
-      </c>
-      <c r="C33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
         <v>165</v>
-      </c>
-      <c r="D34" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
         <v>167</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>168</v>
-      </c>
-      <c r="D36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2809,10 +2850,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
@@ -2820,288 +2861,288 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J15" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J41" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J42" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J53" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H58" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="8:15" x14ac:dyDescent="0.2">
       <c r="I59" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O60" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="61" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J61" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="8:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I63" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J64" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J65" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="8:20" x14ac:dyDescent="0.2">
       <c r="H70" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="8:20" x14ac:dyDescent="0.2">
       <c r="H72" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="8:20" x14ac:dyDescent="0.2">
       <c r="I73" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J74" t="s">
+        <v>248</v>
+      </c>
+      <c r="T74" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="T74" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="75" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K75" s="7"/>
     </row>
@@ -3113,38 +3154,38 @@
     </row>
     <row r="78" spans="8:20" x14ac:dyDescent="0.2">
       <c r="I78" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="8:27" x14ac:dyDescent="0.2">
       <c r="I81" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="8:27" x14ac:dyDescent="0.2">
@@ -3166,7 +3207,7 @@
     </row>
     <row r="86" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H86" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
@@ -3186,44 +3227,44 @@
     </row>
     <row r="88" spans="8:27" x14ac:dyDescent="0.2">
       <c r="I88" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J89" t="s">
+        <v>248</v>
+      </c>
+      <c r="T89" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="T89" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="90" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="8:27" x14ac:dyDescent="0.2">
       <c r="I94" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O60" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="O60" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3231,7 +3272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3242,202 +3283,202 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_module.xlsx
+++ b/doc/ue_module.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="3390" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4605" yWindow="3390" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Windows</t>
   </si>
   <si>
-    <t>void* Handle = LoadLibrary(*FullFileName);</t>
-  </si>
-  <si>
     <t>D:/Source/UE/UnrealEngine-4.26.2-release/Engine/Binaries/Win64/UE4Editor-RSA-Win64-Debug.dll</t>
   </si>
   <si>
@@ -1001,6 +998,10 @@
   </si>
   <si>
     <t>GlobalCompileEnvironment.Definitions.Add(String.Format("WITH_ENGINE={0}", Rules.bCompileAgainstEngine ? "1" : "0"));</t>
+  </si>
+  <si>
+    <t>void* Handle = LoadLibrary(*FullFileName);</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1912,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1931,7 @@
         <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1943,22 +1944,22 @@
         <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,7 +1972,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -2272,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2429,7 +2430,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2459,21 +2460,21 @@
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2483,40 +2484,40 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
         <v>109</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,46 +2537,46 @@
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2604,12 +2605,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,45 +2618,45 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2670,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2685,160 +2686,160 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
         <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
         <v>150</v>
-      </c>
-      <c r="D21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
         <v>152</v>
-      </c>
-      <c r="D25" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" t="s">
         <v>155</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="G30" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
         <v>160</v>
-      </c>
-      <c r="D31" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
         <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
         <v>164</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>167</v>
-      </c>
-      <c r="D36" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2861,100 +2862,100 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
@@ -2964,7 +2965,7 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
@@ -2974,175 +2975,175 @@
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J41" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J42" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J53" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H58" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="8:15" x14ac:dyDescent="0.2">
       <c r="I59" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J60" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="O60" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="61" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J61" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="8:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I63" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="8:15" x14ac:dyDescent="0.2">
       <c r="J64" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J65" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="8:20" x14ac:dyDescent="0.2">
       <c r="H70" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="8:20" x14ac:dyDescent="0.2">
       <c r="H72" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="8:20" x14ac:dyDescent="0.2">
       <c r="I73" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J74" t="s">
+        <v>247</v>
+      </c>
+      <c r="T74" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="T74" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="75" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K75" s="7"/>
     </row>
@@ -3154,38 +3155,38 @@
     </row>
     <row r="78" spans="8:20" x14ac:dyDescent="0.2">
       <c r="I78" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="8:27" x14ac:dyDescent="0.2">
       <c r="I81" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="8:27" x14ac:dyDescent="0.2">
@@ -3207,7 +3208,7 @@
     </row>
     <row r="86" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H86" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
@@ -3227,38 +3228,38 @@
     </row>
     <row r="88" spans="8:27" x14ac:dyDescent="0.2">
       <c r="I88" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J89" t="s">
+        <v>247</v>
+      </c>
+      <c r="T89" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="T89" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="90" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="8:27" x14ac:dyDescent="0.2">
       <c r="I94" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="8:27" x14ac:dyDescent="0.2">
       <c r="J96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3283,202 +3284,202 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_module.xlsx
+++ b/doc/ue_module.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99D02A-C46F-4CF8-90C2-3013A2B625BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="3390" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="554" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +22,7 @@
     <sheet name="编译原理2" sheetId="7" r:id="rId7"/>
     <sheet name="android编译" sheetId="8" r:id="rId8"/>
     <sheet name="windows编译" sheetId="9" r:id="rId9"/>
+    <sheet name="FModuleManager" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="277">
   <si>
     <t>基本概念</t>
   </si>
@@ -1003,11 +1005,53 @@
     <t>void* Handle = LoadLibrary(*FullFileName);</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>FModuleManager</t>
+  </si>
+  <si>
+    <t>模块加载流程：</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IModuleInterface* FModuleManager::LoadModule( const FName InModuleName )</t>
+  </si>
+  <si>
+    <t>IModuleInterface* Result = LoadModuleWithFailureReason(InModuleName, FailureReason );</t>
+  </si>
+  <si>
+    <t>IModuleInterface* FModuleManager::LoadModuleWithFailureReason(const FName InModuleName, EModuleLoadResult&amp; OutFailureReason)</t>
+  </si>
+  <si>
+    <t>ModulesChangedEvent.Broadcast(InModuleName, EModuleChangeReason::ModuleLoaded);</t>
+  </si>
+  <si>
+    <t>注意，这里调用了StartupModule()</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后广播了</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！我们的模块函数在这里被调用了</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Initialize the module!</t>
+  </si>
+  <si>
+    <t>调用模块的InitializeModule，创建一个模块对象</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部都是调用该函数进行模块加载的</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1682,7 +1726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -1859,8 +1903,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87ADD57-7CC9-48A0-B6D5-10E0D5C321C5}">
+  <dimension ref="B4:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1910,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2270,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2426,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2587,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2668,10 +2803,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2851,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:AA96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3265,7 +3400,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O60" r:id="rId1"/>
+    <hyperlink ref="O60" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3273,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
